--- a/DateBase/orders/Dang Nguyen_2024-11-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-20.xlsx
@@ -606,6 +606,9 @@
       <c r="A21" t="str">
         <v>4</v>
       </c>
+      <c r="C21" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2024-11-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-20.xlsx
@@ -609,6 +609,9 @@
       <c r="C21" t="str">
         <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
       </c>
+      <c r="F21" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -670,7 +673,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>050310271071081085272535101088350</v>
+        <v>050310271071081085272535101088351</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -610,12 +610,93 @@
         <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
       </c>
       <c r="F21" t="str">
-        <v>1</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>104_绣球重瓣紫_Hydrangea Purple D_Hydrangea L._1stem</v>
+      </c>
+      <c r="F22" t="str">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>5</v>
+      </c>
+      <c r="C23" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="C25" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F26" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -673,7 +754,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>050310271071081085272535101088351</v>
+        <v>05031027107108108527253510108835160150151055101010250</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-20.xlsx
@@ -693,6 +693,9 @@
       <c r="C31" t="str">
         <v>48_香格里拉_undefined_Gerbera L._10stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -754,7 +757,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05031027107108108527253510108835160150151055101010250</v>
+        <v>05031027107108108527253510108835160150151055101010255</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -697,9 +697,82 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
+      </c>
+      <c r="F32" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>6</v>
+      </c>
+      <c r="C33" t="str">
+        <v>662_大丽花 白_undefined_undefined_5stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>7</v>
+      </c>
+      <c r="C34" t="str">
+        <v>259_诺拉_Nora_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>260_凯拉_Kayla_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>218_上官婉儿_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
+      </c>
+      <c r="F37" t="str">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>8</v>
+      </c>
+      <c r="C39" t="str">
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L39"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -757,7 +830,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05031027107108108527253510108835160150151055101010255</v>
+        <v>050310271071081085272535101088351601501510551010102551066932231616</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-20.xlsx
@@ -832,6 +832,9 @@
       <c r="G2" t="str">
         <v>050310271071081085272535101088351601501510551010102551066932231616</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
